--- a/data_set/data_set_number.xlsx
+++ b/data_set/data_set_number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\data_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86A5951-BF11-4E74-935C-FE9FC7D7822D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B9C97-EF11-4E99-80BD-414E86DA74BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>実験番号</t>
     <rPh sb="0" eb="4">
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>RFECV</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -505,6 +508,96 @@
       </c>
       <c r="D5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/data_set/data_set_number.xlsx
+++ b/data_set/data_set_number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\data_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B9C97-EF11-4E99-80BD-414E86DA74BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14092B14-7057-44CE-BE31-4643668D4DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/data_set/data_set_number.xlsx
+++ b/data_set/data_set_number.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\data_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14092B14-7057-44CE-BE31-4643668D4DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D17EE0E-CB45-4C0E-A788-52D7DC24D0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="2205" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
   <si>
     <t>実験番号</t>
     <rPh sb="0" eb="4">
@@ -81,13 +81,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>main</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>RFECV</t>
+  </si>
+  <si>
+    <t>main9</t>
+  </si>
+  <si>
+    <t>main9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーサンプリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMOTE</t>
+  </si>
+  <si>
+    <t>Adasyn</t>
+  </si>
+  <si>
+    <t>SMOTEENN</t>
+  </si>
+  <si>
+    <t>Borderline SMOTE</t>
+  </si>
+  <si>
+    <t>特徴量選択②</t>
+    <rPh sb="0" eb="3">
+      <t>トクチョウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main15</t>
+  </si>
+  <si>
+    <t>main15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -413,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -426,9 +467,12 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +488,17 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>100</v>
       </c>
@@ -462,7 +515,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>101</v>
       </c>
@@ -479,7 +532,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>102</v>
       </c>
@@ -496,54 +549,54 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -555,40 +608,40 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -600,22 +653,471 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1015</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1016</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1017</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1018</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1019</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>1020</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>1021</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1022</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1023</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1024</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1025</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>1026</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1027</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>1028</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>1029</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>1030</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>1031</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>1032</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>1033</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>1034</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>1035</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1036</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>1037</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1038</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1039</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1040</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1041</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1051</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:E12" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E4">
       <sortCondition ref="A1:A4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{7CB8D70B-F3AA-4030-8E9A-8FEECDA1AFC0}">
       <formula1>"all, acc, gyro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A17CEE8A-484E-4BA8-8048-40454A2DB684}">
-      <formula1>"main, 100Hz"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 D1:D1048576" xr:uid="{0B3643D3-2CF2-4B9B-8AAB-F9B7AC6A725A}">
+      <formula1>"None, RFECV, SFM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{0B3643D3-2CF2-4B9B-8AAB-F9B7AC6A725A}">
-      <formula1>"None, RFECV, SFM"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{1767B225-0313-46C4-B140-CA7E21A1C969}">
+      <formula1>"None, SMOTE, SMOTEENN, Adasyn, Borderline SMOTE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{492611BF-DC90-453D-B74E-B997E322D4A6}">
+      <formula1>"main9, main14, main15, 100Hz"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_set/data_set_number.xlsx
+++ b/data_set/data_set_number.xlsx
@@ -8,27 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\data_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D17EE0E-CB45-4C0E-A788-52D7DC24D0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B634FBE-E310-4D79-B4D4-45E3B25E5A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="2205" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="34">
   <si>
     <t>実験番号</t>
     <rPh sb="0" eb="4">
@@ -127,7 +134,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mid</t>
+    <t>RFECV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類モデル</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>LSVC</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>GBC</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>最適なハイパーパラメータの探索</t>
+    <rPh sb="0" eb="2">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -135,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +193,27 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -171,9 +240,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -454,25 +526,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="24.875" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="3" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,22 +555,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>100</v>
       </c>
@@ -509,13 +584,16 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>101</v>
       </c>
@@ -526,13 +604,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>102</v>
       </c>
@@ -543,13 +624,16 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>103</v>
       </c>
@@ -560,10 +644,13 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>104</v>
       </c>
@@ -574,10 +661,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>105</v>
       </c>
@@ -588,10 +678,13 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>106</v>
       </c>
@@ -602,13 +695,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>107</v>
       </c>
@@ -619,10 +715,13 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>108</v>
       </c>
@@ -633,10 +732,13 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>109</v>
       </c>
@@ -647,13 +749,16 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1015</v>
       </c>
@@ -664,10 +769,13 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1016</v>
       </c>
@@ -678,10 +786,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>1017</v>
       </c>
@@ -692,10 +803,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>1018</v>
       </c>
@@ -706,13 +820,16 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>1019</v>
       </c>
@@ -723,13 +840,16 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>1020</v>
       </c>
@@ -740,13 +860,16 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1021</v>
       </c>
@@ -757,13 +880,16 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1022</v>
       </c>
@@ -774,13 +900,16 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1023</v>
       </c>
@@ -791,13 +920,16 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1024</v>
       </c>
@@ -808,13 +940,16 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>1025</v>
       </c>
@@ -825,13 +960,16 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>1026</v>
       </c>
@@ -842,13 +980,16 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1027</v>
       </c>
@@ -859,13 +1000,16 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1028</v>
       </c>
@@ -876,13 +1020,16 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>1029</v>
       </c>
@@ -893,15 +1040,18 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -910,15 +1060,18 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -927,15 +1080,18 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -944,15 +1100,18 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -961,163 +1120,741 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>1037</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3">
+        <v>1038</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>1039</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>1040</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>1041</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>1042</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>1043</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>1044</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>1045</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>1046</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1">
+      <c r="A41" s="2">
+        <v>1047</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>1048</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>1049</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>1050</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>1051</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>1052</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>1053</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>1054</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>1034</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>1055</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
         <v>8</v>
       </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>1035</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>1056</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1036</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1037</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1038</v>
-      </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1039</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1040</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1041</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>1051</v>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>1060</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>1061</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>1062</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>1063</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>1064</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>1065</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>1066</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>1068</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>1069</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>1070</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>1071</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>1072</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>1073</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>1074</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>1075</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>1076</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>1077</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>1078</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>1092</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E12" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E4">
+  <autoFilter ref="A1:F12" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F4">
       <sortCondition ref="A1:A4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{7CB8D70B-F3AA-4030-8E9A-8FEECDA1AFC0}">
       <formula1>"all, acc, gyro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 D1:D1048576" xr:uid="{0B3643D3-2CF2-4B9B-8AAB-F9B7AC6A725A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 H1:H1048576" xr:uid="{0B3643D3-2CF2-4B9B-8AAB-F9B7AC6A725A}">
       <formula1>"None, RFECV, SFM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{1767B225-0313-46C4-B140-CA7E21A1C969}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{1767B225-0313-46C4-B140-CA7E21A1C969}">
       <formula1>"None, SMOTE, SMOTEENN, Adasyn, Borderline SMOTE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{492611BF-DC90-453D-B74E-B997E322D4A6}">
       <formula1>"main9, main14, main15, 100Hz"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{A79C2572-D234-4467-A179-924A1918761A}">
+      <formula1>"RF, LR, SVC, LSVC, KN, GNB, GBC, SGD"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_set/data_set_number.xlsx
+++ b/data_set/data_set_number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\data_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B634FBE-E310-4D79-B4D4-45E3B25E5A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F808A8A-5ACF-43EC-B07D-0F56FBEDCDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="34">
   <si>
     <t>実験番号</t>
     <rPh sb="0" eb="4">
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -1746,10 +1746,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1077</v>
-      </c>
-      <c r="B67" t="s">
-        <v>21</v>
+        <v>1078</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1757,79 +1754,71 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>1078</v>
-      </c>
-      <c r="C68" t="s">
-        <v>5</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82">
         <v>1092</v>
       </c>
     </row>

--- a/data_set/data_set_number.xlsx
+++ b/data_set/data_set_number.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\data_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F808A8A-5ACF-43EC-B07D-0F56FBEDCDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B68A0C-FA6C-4767-BF40-2901C1F14B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
   <si>
     <t>実験番号</t>
     <rPh sb="0" eb="4">
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1486,7 +1486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>1055</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>1056</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>1060</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>1061</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>1062</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>1063</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>1064</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>1065</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>1066</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>1069</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>1070</v>
       </c>
@@ -1666,8 +1666,20 @@
       <c r="C59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="1">
+        <v>35</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>1071</v>
       </c>
@@ -1678,7 +1690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>1072</v>
       </c>
@@ -1689,7 +1701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>1073</v>
       </c>
@@ -1700,7 +1712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>1074</v>
       </c>
@@ -1711,7 +1723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>1075</v>
       </c>

--- a/data_set/data_set_number.xlsx
+++ b/data_set/data_set_number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\data_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B68A0C-FA6C-4767-BF40-2901C1F14B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD8D9F-67D7-43CE-AC0A-353C7E870FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="41">
   <si>
     <t>実験番号</t>
     <rPh sb="0" eb="4">
@@ -175,6 +175,40 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウサイズ：８</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウサイズ：１６</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウサイズ：６４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウサイズ：１２８</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウサイズ：３２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間領域</t>
+    <rPh sb="0" eb="4">
+      <t>ジカンリョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周波数領域</t>
+    <rPh sb="0" eb="5">
+      <t>シュウハスウリョウイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -526,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1689,6 +1723,15 @@
       <c r="C60" t="s">
         <v>5</v>
       </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
@@ -1700,6 +1743,15 @@
       <c r="C61" t="s">
         <v>5</v>
       </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
@@ -1711,6 +1763,15 @@
       <c r="C62" t="s">
         <v>5</v>
       </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
@@ -1722,6 +1783,15 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
@@ -1733,8 +1803,17 @@
       <c r="C64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>1076</v>
       </c>
@@ -1744,8 +1823,17 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>1077</v>
       </c>
@@ -1755,83 +1843,998 @@
       <c r="C66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>1078</v>
       </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
       <c r="C67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>1079</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>1080</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>1081</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>1082</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>1083</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>1084</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>1085</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>1086</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>1087</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>1088</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>1089</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>1090</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>1091</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>1092</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>1093</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>1094</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>1095</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>1096</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>1097</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>1098</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>1099</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>1100</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>1101</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>1102</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>1103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>1104</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>1105</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>1106</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>1107</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>1108</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>1109</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>1110</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>1111</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>1112</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>1113</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>1114</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>1115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>1116</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>1117</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>1118</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>1119</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>1120</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>1121</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>1122</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>1123</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +2848,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{7CB8D70B-F3AA-4030-8E9A-8FEECDA1AFC0}">
       <formula1>"all, acc, gyro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 H1:H1048576" xr:uid="{0B3643D3-2CF2-4B9B-8AAB-F9B7AC6A725A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 E1:E1048576" xr:uid="{0B3643D3-2CF2-4B9B-8AAB-F9B7AC6A725A}">
       <formula1>"None, RFECV, SFM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{1767B225-0313-46C4-B140-CA7E21A1C969}">

--- a/data_set/data_set_number.xlsx
+++ b/data_set/data_set_number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\data_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD8D9F-67D7-43CE-AC0A-353C7E870FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F4CE42-270D-4344-8998-525B75B0649B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="47">
   <si>
     <t>実験番号</t>
     <rPh sb="0" eb="4">
@@ -210,6 +210,29 @@
     <rPh sb="0" eb="5">
       <t>シュウハスウリョウイキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnderSampling</t>
+  </si>
+  <si>
+    <t>k_neighbors=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k_neighbors=2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k_neighbors=3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k_neighbors=4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k_neighbors=5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -562,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2133,7 +2156,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>1092</v>
       </c>
@@ -2153,7 +2176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>1093</v>
       </c>
@@ -2173,7 +2196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>1094</v>
       </c>
@@ -2193,7 +2216,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>1095</v>
       </c>
@@ -2213,7 +2236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>1096</v>
       </c>
@@ -2233,7 +2256,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>1097</v>
       </c>
@@ -2246,8 +2269,11 @@
       <c r="D86" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>1098</v>
       </c>
@@ -2260,8 +2286,14 @@
       <c r="D87" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>1099</v>
       </c>
@@ -2274,8 +2306,14 @@
       <c r="D88" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>1100</v>
       </c>
@@ -2288,8 +2326,14 @@
       <c r="D89" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>1101</v>
       </c>
@@ -2302,8 +2346,14 @@
       <c r="D90" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>1102</v>
       </c>
@@ -2316,8 +2366,14 @@
       <c r="D91" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>1103</v>
       </c>
@@ -2330,8 +2386,11 @@
       <c r="D92" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>1104</v>
       </c>
@@ -2345,7 +2404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>1105</v>
       </c>
@@ -2359,7 +2418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>1106</v>
       </c>
@@ -2373,7 +2432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>1107</v>
       </c>
@@ -2852,7 +2911,7 @@
       <formula1>"None, RFECV, SFM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{1767B225-0313-46C4-B140-CA7E21A1C969}">
-      <formula1>"None, SMOTE, SMOTEENN, Adasyn, Borderline SMOTE"</formula1>
+      <formula1>"None, UnderSampling, SMOTE, SMOTEENN, Adasyn, Borderline SMOTE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{492611BF-DC90-453D-B74E-B997E322D4A6}">
       <formula1>"main9, main14, main15, 100Hz"</formula1>

--- a/data_set/data_set_number.xlsx
+++ b/data_set/data_set_number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\data_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF37C82-9004-463A-877E-661DA0DF8D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0051EDC8-30A4-453E-A22A-AE40E9855FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="840" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>実験番号</t>
     <rPh sb="0" eb="4">
@@ -62,13 +62,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100Hz</t>
-  </si>
-  <si>
     <t>all</t>
-  </si>
-  <si>
-    <t>SFM</t>
   </si>
   <si>
     <t>閾値</t>
@@ -78,16 +72,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>acc</t>
-  </si>
-  <si>
-    <t>gyro</t>
-  </si>
-  <si>
-    <t>100Hz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オーバーサンプリング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -110,6 +94,14 @@
   </si>
   <si>
     <t>RF</t>
+  </si>
+  <si>
+    <t>test_0519_B4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test_0519_M1</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -446,7 +438,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -472,82 +464,59 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D6" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.01</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="2" customFormat="1">
@@ -568,20 +537,17 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{7CB8D70B-F3AA-4030-8E9A-8FEECDA1AFC0}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5:C1048576" xr:uid="{7CB8D70B-F3AA-4030-8E9A-8FEECDA1AFC0}">
       <formula1>"all, acc, gyro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 H1:H1048576" xr:uid="{0B3643D3-2CF2-4B9B-8AAB-F9B7AC6A725A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 E1 E5:E1048576" xr:uid="{0B3643D3-2CF2-4B9B-8AAB-F9B7AC6A725A}">
       <formula1>"None, RFECV, SFM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{1767B225-0313-46C4-B140-CA7E21A1C969}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 A2:F4" xr:uid="{1767B225-0313-46C4-B140-CA7E21A1C969}">
       <formula1>"None, UnderSampling, SMOTE, SMOTEENN, Adasyn, Borderline SMOTE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{492611BF-DC90-453D-B74E-B997E322D4A6}">
-      <formula1>"main9, main14, main15, 100Hz"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{A79C2572-D234-4467-A179-924A1918761A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D5:D1048576" xr:uid="{A79C2572-D234-4467-A179-924A1918761A}">
       <formula1>"RF, LR, SVC, LSVC, KN, GNB, GBC, SGD"</formula1>
     </dataValidation>
   </dataValidations>
